--- a/letters.xlsx
+++ b/letters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\searchWords\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\crossWordChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BA58D-D8BC-42BF-B7DA-8067BB22CB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB09B3-C8F0-49E4-B62B-D99162590A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38745" yWindow="630" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="letters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>w</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>u</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
 </sst>
 </file>
@@ -950,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -958,7 +955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,11 +986,8 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
